--- a/emails.xlsx
+++ b/emails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264bd41ec10c58b0/Documentos/GitHub/Tcc_sistema_inteligente_ia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4D361C20488DEA4E38A013945E68425BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C94EDE5-D6D5-4F49-9ACF-57D19BA6CCB3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D361C20488DEA4E38A013945E68425BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A049AA46-CDF0-487E-B2DB-86A6C9B78228}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,6 +103,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,10 +375,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
